--- a/evaluation/Zero-shot_with_description_evaluation.xlsx
+++ b/evaluation/Zero-shot_with_description_evaluation.xlsx
@@ -5,10 +5,10 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Katarina\python\project\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Katarina\python\repo_project\AIEDproject\evaluation\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8341D504-18D1-433B-9A18-DF02E9F24A29}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{09294D92-D2FB-4098-8DD0-AFDFE945F1BA}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -2615,8 +2615,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:M444"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="70" workbookViewId="0">
-      <selection activeCell="G1" sqref="G1:M1"/>
+    <sheetView tabSelected="1" topLeftCell="A408" zoomScale="70" workbookViewId="0">
+      <selection sqref="A1:F444"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -11444,5 +11444,6 @@
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>